--- a/WADE003-arcticpred_dada2_QAQC_16SP2_output-ADFGnotes.xlsx
+++ b/WADE003-arcticpred_dada2_QAQC_16SP2_output-ADFGnotes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bd2331949789710/文档/WADE LAB/Arctic-predator-diet-microbiome/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_C822BCCC8F79A8D366075C52F37BD2724AC2D284" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4306D44-FBD3-4597-A83F-791B5F5CF982}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_C822BCCC8F79A8D366075C52F37BD2724AC2D284" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E40C96FF-F25B-4AFD-836F-B5FBE97A0739}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="136">
   <si>
     <t>rownames</t>
   </si>
@@ -505,12 +505,21 @@
       <t xml:space="preserve">, </t>
     </r>
   </si>
+  <si>
+    <t>100% Myzopsetta proboscidea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100% Liopsetta pinnifasciata, Liopsetta glacialis </t>
+  </si>
+  <si>
+    <t>Liopsetta pinnifasciata is found in Japan, Kuril islands, and Russia</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,13 +549,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -558,16 +579,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -872,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2005,10 +2029,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D75FBA4-56E3-470D-98C2-CADBD7991F49}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2022,7 +2046,7 @@
     <col min="9" max="9" width="52.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2048,21 +2072,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -2075,8 +2102,14 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -2093,7 +2126,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2104,7 +2137,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -2118,7 +2151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -2132,7 +2165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -2140,7 +2173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -2154,7 +2187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -2165,7 +2198,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -2179,7 +2212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>107</v>
       </c>
@@ -2202,7 +2235,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -2222,7 +2255,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>115</v>
       </c>
